--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75617ADE-BF35-4DF3-9B92-6BF161303CE4}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A3201D-55A4-4A99-8F62-547FB31C014D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Opgave</t>
   </si>
@@ -415,15 +415,66 @@
   <si>
     <t>29/12</t>
   </si>
+  <si>
+    <t>Uge38</t>
+  </si>
+  <si>
+    <t>Uge37</t>
+  </si>
+  <si>
+    <t>Uge36</t>
+  </si>
+  <si>
+    <t>Uge39</t>
+  </si>
+  <si>
+    <t>UGe41</t>
+  </si>
+  <si>
+    <t>Uge42</t>
+  </si>
+  <si>
+    <t>Uge43</t>
+  </si>
+  <si>
+    <t>Uge44</t>
+  </si>
+  <si>
+    <t>Uge45</t>
+  </si>
+  <si>
+    <t>Uge46</t>
+  </si>
+  <si>
+    <t>Uge47</t>
+  </si>
+  <si>
+    <t>Uge48</t>
+  </si>
+  <si>
+    <t>Uge49</t>
+  </si>
+  <si>
+    <t>Uge50</t>
+  </si>
+  <si>
+    <t>Uge51</t>
+  </si>
+  <si>
+    <t>Uge52</t>
+  </si>
+  <si>
+    <t>Uge40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\/mm"/>
+    <numFmt numFmtId="164" formatCode="dd\/mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +507,14 @@
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -673,25 +732,11 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,12 +755,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="% fuldført" xfId="4" xr:uid="{961CAA61-88B6-4C42-AE3F-3942DC3A987E}"/>
@@ -728,19 +787,21 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd\/mm"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -750,59 +811,89 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd\/mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,14 +908,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1957CB66-333F-484A-8044-28C6CFD2AC4E}" name="Tabel1" displayName="Tabel1" ref="A3:BT37" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:BT37" xr:uid="{1957CB66-333F-484A-8044-28C6CFD2AC4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1957CB66-333F-484A-8044-28C6CFD2AC4E}" name="Tabel1" displayName="Tabel1" ref="A3:BT35" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:BT35" xr:uid="{1957CB66-333F-484A-8044-28C6CFD2AC4E}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{6AC53489-4E42-4561-9105-E53799751BB4}" name="Overemne" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D34C0944-0ED0-429F-83E6-80101BCA76D3}" name="Opgave" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{585B84BF-C432-4AF3-8999-72B769F20485}" name="estimeret tid" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{92DF52A4-5F7B-48B8-B71B-97706983AA9B}" name="Kolonne4" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6AC53489-4E42-4561-9105-E53799751BB4}" name="Overemne" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D34C0944-0ED0-429F-83E6-80101BCA76D3}" name="Opgave" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{585B84BF-C432-4AF3-8999-72B769F20485}" name="estimeret tid" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{92DF52A4-5F7B-48B8-B71B-97706983AA9B}" name="Kolonne4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D4B09E2B-1126-42EA-903C-F0EBB92C0FD6}" name="05/09"/>
     <tableColumn id="6" xr3:uid="{B63405E1-19D4-441E-939B-7B28F3289687}" name="06/09"/>
     <tableColumn id="7" xr3:uid="{C3227B75-CE77-494C-95DC-6AFB385C9C4D}" name="07/09"/>
@@ -1195,698 +1290,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
-  <dimension ref="A1:BT37"/>
+  <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
-    <col min="5" max="72" width="7.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="72" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="9" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="1" t="s">
+    <row r="1" spans="1:72" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="2" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="2" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="2" t="s">
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="24" t="s">
+      <c r="AC3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="24" t="s">
+      <c r="AD3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="24" t="s">
+      <c r="AF3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="24" t="s">
+      <c r="AK3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="24" t="s">
+      <c r="AL3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AN3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="24" t="s">
+      <c r="AS3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AU3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BA3" s="24" t="s">
+      <c r="BA3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="BB3" s="24" t="s">
+      <c r="BB3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="BC3" s="24" t="s">
+      <c r="BC3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="BD3" s="24" t="s">
+      <c r="BD3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BI3" s="24" t="s">
+      <c r="BI3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="BJ3" s="24" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="BK3" s="24" t="s">
+      <c r="BK3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="BL3" s="24" t="s">
+      <c r="BL3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BQ3" s="24" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="BR3" s="24" t="s">
+      <c r="BR3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="BS3" s="24" t="s">
+      <c r="BS3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BT3" s="25" t="s">
+      <c r="BT3" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+    <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="BT5" s="10"/>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="5" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="J5" s="2"/>
+      <c r="BT5" s="5"/>
+    </row>
+    <row r="6" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="BT6" s="10"/>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="BT6" s="5"/>
+    </row>
+    <row r="7" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="21"/>
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="17">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="BT7" s="10"/>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="F7" s="6"/>
+      <c r="BT7" s="5"/>
+    </row>
+    <row r="8" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>4</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15"/>
-      <c r="S8" s="4"/>
-      <c r="BT8" s="10"/>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="7"/>
+      <c r="S8" s="1"/>
+      <c r="BT8" s="5"/>
+    </row>
+    <row r="9" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="BT9" s="10"/>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="BT9" s="5"/>
+    </row>
+    <row r="10" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="21"/>
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="16"/>
-      <c r="BT10" s="10"/>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8"/>
+      <c r="BT10" s="5"/>
+    </row>
+    <row r="11" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="BT11" s="10"/>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="BT12" s="10"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="BT11" s="5"/>
+    </row>
+    <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B12" s="22">
         <v>2040</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="BT13" s="10"/>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="BT12" s="5"/>
+    </row>
+    <row r="13" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="21"/>
+      <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="BT14" s="10"/>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="O13" s="6"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="BT13" s="5"/>
+    </row>
+    <row r="14" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="BT15" s="10"/>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="BT14" s="5"/>
+    </row>
+    <row r="15" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="21"/>
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="BT16" s="10"/>
-    </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="BT15" s="5"/>
+    </row>
+    <row r="16" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="21"/>
+      <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="BT17" s="10"/>
-    </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="BT16" s="5"/>
+    </row>
+    <row r="17" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="21"/>
+      <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="BT18" s="10"/>
-    </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="O17" s="6"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="BT17" s="5"/>
+    </row>
+    <row r="18" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="21"/>
+      <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="BT19" s="10"/>
-    </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="BT18" s="5"/>
+    </row>
+    <row r="19" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="21"/>
+      <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="BT20" s="10"/>
-    </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A21" s="12"/>
-      <c r="B21" s="6" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="BT19" s="5"/>
+    </row>
+    <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="21"/>
+      <c r="B20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="BT21" s="10"/>
-    </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="6" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="BT20" s="5"/>
+    </row>
+    <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="21"/>
+      <c r="B21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="AM22" s="16"/>
-      <c r="AN22" s="16"/>
-      <c r="BT22" s="10"/>
-    </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="BT23" s="10"/>
-    </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="O21" s="11"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="BT21" s="5"/>
+    </row>
+    <row r="22" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="BT24" s="10"/>
-    </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="6" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+      <c r="AR22" s="8"/>
+      <c r="BT22" s="5"/>
+    </row>
+    <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BT25" s="10"/>
-    </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="8"/>
+      <c r="AZ23" s="8"/>
+      <c r="BT23" s="5"/>
+    </row>
+    <row r="24" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BT26" s="10"/>
-    </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BT24" s="5"/>
+    </row>
+    <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="16"/>
-      <c r="BK27" s="16"/>
-      <c r="BT27" s="10"/>
-    </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="6" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BT25" s="5"/>
+    </row>
+    <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="17"/>
-      <c r="BT28" s="10"/>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="6" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="9"/>
+      <c r="BT26" s="5"/>
+    </row>
+    <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="BT29" s="10"/>
-    </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="6" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="BT27" s="5"/>
+    </row>
+    <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="BT30" s="10"/>
-    </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="6" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="BT28" s="5"/>
+    </row>
+    <row r="29" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="H31" s="14"/>
-      <c r="L31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="BT31" s="10"/>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="H29" s="6"/>
+      <c r="L29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="BT29" s="5"/>
+    </row>
+    <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="24"/>
+      <c r="B30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="AO32" s="16"/>
-      <c r="AP32" s="16"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-      <c r="AS32" s="16"/>
-      <c r="AT32" s="16"/>
-      <c r="AU32" s="16"/>
-      <c r="AV32" s="16"/>
-      <c r="BT32" s="10"/>
-    </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="6" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="BT30" s="5"/>
+    </row>
+    <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="BL33" s="16"/>
-    </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
-      <c r="B34" s="6" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="BL31" s="8"/>
+    </row>
+    <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="BM34" s="16"/>
-    </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="6" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="BM32" s="8"/>
+    </row>
+    <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="BN35" s="16"/>
-    </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="BN33" s="8"/>
+    </row>
+    <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="24"/>
+      <c r="B34" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="BO36" s="16"/>
-    </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="BO34" s="8"/>
+    </row>
+    <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="25"/>
+      <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="BP37" s="16"/>
-      <c r="BQ37" s="16"/>
-      <c r="BR37" s="16"/>
-      <c r="BS37" s="16"/>
-      <c r="BT37" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="BP35" s="8"/>
+      <c r="BQ35" s="8"/>
+      <c r="BR35" s="8"/>
+      <c r="BS35" s="8"/>
+      <c r="BT35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1899,10 +2038,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H29:I29 K8 N9" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E28" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G29 E6 F7:F8 H31 M10:N10 S1 M9" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P31 I9:L9 G8 L31 I8:J8 O10:O11 M11:N11 O13:R13 U15:V15 S14:T14 W16:X16 Y17:Z17 AA18:AB18 AC19:AD19 AE20:AF20 AM22:AN22 AG21:AL21 AO32:AV32 AO24:AR24 AW25:AZ25 BA26:BB26 BC27:BK27 BL33 BN35 BM34 BO36 BP37:BT37" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 O17 O12:O13" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 W15:X15 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 P12:R12" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A3201D-55A4-4A99-8F62-547FB31C014D}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EBB4B07-EC29-4105-A476-A9FE58BFC6A4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -757,12 +757,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,6 +769,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="% fuldført" xfId="4" xr:uid="{961CAA61-88B6-4C42-AE3F-3942DC3A987E}"/>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:BT35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,46 +1313,46 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
       <c r="S1" s="11"/>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
       <c r="AD1" s="10"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
       <c r="AL1"/>
       <c r="AM1"/>
       <c r="AN1"/>
@@ -1416,16 +1416,16 @@
       </c>
     </row>
     <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -1634,62 +1634,62 @@
       </c>
     </row>
     <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="J5" s="2"/>
       <c r="BT5" s="5"/>
     </row>
     <row r="6" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="6"/>
       <c r="BT6" s="5"/>
     </row>
     <row r="7" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="21"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
       <c r="BT7" s="5"/>
     </row>
     <row r="8" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
       <c r="F8" s="6"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
@@ -1699,12 +1699,12 @@
       <c r="BT8" s="5"/>
     </row>
     <row r="9" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1715,38 +1715,38 @@
       <c r="BT9" s="5"/>
     </row>
     <row r="10" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="21"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="M10" s="6"/>
       <c r="N10" s="11"/>
       <c r="O10" s="8"/>
       <c r="BT10" s="5"/>
     </row>
     <row r="11" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="21"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="BT11" s="5"/>
     </row>
     <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>2040</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="O12" s="11"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -1754,91 +1754,91 @@
       <c r="BT12" s="5"/>
     </row>
     <row r="13" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="21"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="O13" s="6"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="O13" s="11"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="BT13" s="5"/>
     </row>
     <row r="14" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="21"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="BT14" s="5"/>
     </row>
     <row r="15" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="21"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="BT15" s="5"/>
     </row>
     <row r="16" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="21"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="BT16" s="5"/>
     </row>
     <row r="17" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="21"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="O17" s="6"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="O17" s="11"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="BT17" s="5"/>
     </row>
     <row r="18" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="BT18" s="5"/>
     </row>
     <row r="19" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="21"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
       <c r="BT19" s="5"/>
     </row>
     <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="21"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
@@ -1848,26 +1848,26 @@
       <c r="BT20" s="5"/>
     </row>
     <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="O21" s="11"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
       <c r="BT21" s="5"/>
     </row>
     <row r="22" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
@@ -1875,12 +1875,12 @@
       <c r="BT22" s="5"/>
     </row>
     <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="21"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
       <c r="AY23" s="8"/>
@@ -1888,25 +1888,25 @@
       <c r="BT23" s="5"/>
     </row>
     <row r="24" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
       <c r="BT24" s="5"/>
     </row>
     <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
@@ -1919,55 +1919,55 @@
       <c r="BT25" s="5"/>
     </row>
     <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="21"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="9"/>
       <c r="BT26" s="5"/>
     </row>
     <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="21"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="BT27" s="5"/>
     </row>
     <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="21"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="BT28" s="5"/>
     </row>
     <row r="29" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="21"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="H29" s="6"/>
       <c r="L29" s="8"/>
       <c r="P29" s="8"/>
       <c r="BT29" s="5"/>
     </row>
     <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="24"/>
-      <c r="B30" s="17" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
       <c r="AQ30" s="8"/>
@@ -1979,48 +1979,48 @@
       <c r="BT30" s="5"/>
     </row>
     <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="21"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="BL31" s="8"/>
     </row>
     <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="21"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="BM32" s="8"/>
     </row>
     <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="BN33" s="8"/>
     </row>
     <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="24"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="BO34" s="8"/>
     </row>
     <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="25"/>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="BP35" s="8"/>
       <c r="BQ35" s="8"/>
       <c r="BR35" s="8"/>
@@ -2040,7 +2040,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 O17 O12:O13" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 O12:O13 O17" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 W15:X15 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 P12:R12" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EBB4B07-EC29-4105-A476-A9FE58BFC6A4}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B09B436-2B36-413E-8AC6-7DB26068C751}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -1293,7 +1293,7 @@
   <dimension ref="A1:BT35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1736,6 +1736,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
       <c r="BT11" s="5"/>
     </row>
     <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -2038,9 +2041,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9 S11:T11" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 O12:O13 O17" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 W15:X15 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 P12:R12" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B09B436-2B36-413E-8AC6-7DB26068C751}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2850806F-9CDD-4E42-9BE7-519989880E2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -1292,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,6 +1739,9 @@
       <c r="R11" s="6"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="11"/>
       <c r="BT11" s="5"/>
     </row>
     <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1777,6 +1780,7 @@
       <c r="D14" s="15"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
+      <c r="W14" s="11"/>
       <c r="BT14" s="5"/>
     </row>
     <row r="15" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1786,7 +1790,7 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="W15" s="8"/>
+      <c r="W15" s="6"/>
       <c r="X15" s="8"/>
       <c r="BT15" s="5"/>
     </row>
@@ -2041,10 +2045,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9 S11:T11" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9 S11:V11" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 W15:X15 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 P12:R12" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13 W11 W14:W15" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2850806F-9CDD-4E42-9BE7-519989880E2F}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDE816C-BE6F-441E-9152-764238EA4130}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -1293,19 +1293,19 @@
   <dimension ref="A1:BT35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="72" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="72" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:72" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1362,7 +1362,7 @@
       <c r="AR1"/>
       <c r="AS1"/>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>113</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17"/>
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1649,7 +1649,7 @@
       <c r="J5" s="2"/>
       <c r="BT5" s="5"/>
     </row>
-    <row r="6" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="E6" s="6"/>
       <c r="BT6" s="5"/>
     </row>
-    <row r="7" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="15" t="s">
         <v>23</v>
@@ -1679,7 +1679,7 @@
       <c r="F7" s="6"/>
       <c r="BT7" s="5"/>
     </row>
-    <row r="8" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="S8" s="1"/>
       <c r="BT8" s="5"/>
     </row>
-    <row r="9" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="15" t="s">
         <v>6</v>
@@ -1714,7 +1714,7 @@
       <c r="O9" s="7"/>
       <c r="BT9" s="5"/>
     </row>
-    <row r="10" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="15" t="s">
         <v>8</v>
@@ -1726,7 +1726,7 @@
       <c r="O10" s="8"/>
       <c r="BT10" s="5"/>
     </row>
-    <row r="11" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="15" t="s">
         <v>7</v>
@@ -1744,7 +1744,7 @@
       <c r="W11" s="11"/>
       <c r="BT11" s="5"/>
     </row>
-    <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="R12" s="8"/>
       <c r="BT12" s="5"/>
     </row>
-    <row r="13" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="15" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
       <c r="T13" s="8"/>
       <c r="BT13" s="5"/>
     </row>
-    <row r="14" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="15" t="s">
         <v>11</v>
@@ -1783,7 +1783,7 @@
       <c r="W14" s="11"/>
       <c r="BT14" s="5"/>
     </row>
-    <row r="15" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="15" t="s">
         <v>12</v>
@@ -1794,7 +1794,7 @@
       <c r="X15" s="8"/>
       <c r="BT15" s="5"/>
     </row>
-    <row r="16" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="15" t="s">
         <v>13</v>
@@ -1803,9 +1803,10 @@
       <c r="D16" s="15"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
+      <c r="AA16" s="11"/>
       <c r="BT16" s="5"/>
     </row>
-    <row r="17" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="15" t="s">
         <v>14</v>
@@ -1817,18 +1818,19 @@
       <c r="AB17" s="8"/>
       <c r="BT17" s="5"/>
     </row>
-    <row r="18" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
+      <c r="AA18" s="6"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="BT18" s="5"/>
     </row>
-    <row r="19" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="15" t="s">
         <v>16</v>
@@ -1839,7 +1841,7 @@
       <c r="AF19" s="8"/>
       <c r="BT19" s="5"/>
     </row>
-    <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="15" t="s">
         <v>17</v>
@@ -1854,7 +1856,7 @@
       <c r="AL20" s="8"/>
       <c r="BT20" s="5"/>
     </row>
-    <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="15" t="s">
         <v>24</v>
@@ -1866,7 +1868,7 @@
       <c r="AN21" s="8"/>
       <c r="BT21" s="5"/>
     </row>
-    <row r="22" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="AR22" s="8"/>
       <c r="BT22" s="5"/>
     </row>
-    <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="15" t="s">
         <v>39</v>
@@ -1894,7 +1896,7 @@
       <c r="AZ23" s="8"/>
       <c r="BT23" s="5"/>
     </row>
-    <row r="24" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
         <v>19</v>
@@ -1905,7 +1907,7 @@
       <c r="BB24" s="8"/>
       <c r="BT24" s="5"/>
     </row>
-    <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>20</v>
       </c>
@@ -1925,7 +1927,7 @@
       <c r="BK25" s="8"/>
       <c r="BT25" s="5"/>
     </row>
-    <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="15" t="s">
         <v>26</v>
@@ -1935,7 +1937,7 @@
       <c r="E26" s="9"/>
       <c r="BT26" s="5"/>
     </row>
-    <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15" t="s">
         <v>27</v>
@@ -1947,7 +1949,7 @@
       <c r="I27" s="7"/>
       <c r="BT27" s="5"/>
     </row>
-    <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15" t="s">
         <v>28</v>
@@ -1956,7 +1958,7 @@
       <c r="D28" s="15"/>
       <c r="BT28" s="5"/>
     </row>
-    <row r="29" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="15" t="s">
         <v>4</v>
@@ -1968,7 +1970,7 @@
       <c r="P29" s="8"/>
       <c r="BT29" s="5"/>
     </row>
-    <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="15" t="s">
         <v>40</v>
@@ -1985,7 +1987,7 @@
       <c r="AV30" s="8"/>
       <c r="BT30" s="5"/>
     </row>
-    <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="15" t="s">
         <v>29</v>
@@ -1994,7 +1996,7 @@
       <c r="D31" s="15"/>
       <c r="BL31" s="8"/>
     </row>
-    <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="15" t="s">
         <v>30</v>
@@ -2003,7 +2005,7 @@
       <c r="D32" s="15"/>
       <c r="BM32" s="8"/>
     </row>
-    <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="15" t="s">
         <v>32</v>
@@ -2012,7 +2014,7 @@
       <c r="D33" s="15"/>
       <c r="BN33" s="8"/>
     </row>
-    <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="15" t="s">
         <v>31</v>
@@ -2021,7 +2023,7 @@
       <c r="D34" s="15"/>
       <c r="BO34" s="8"/>
     </row>
-    <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="15" t="s">
         <v>41</v>
@@ -2047,7 +2049,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9 S11:V11" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13 W11 W14:W15" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDE816C-BE6F-441E-9152-764238EA4130}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C84AE6-5D62-4481-99D1-28B1E31B53CC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>Opgave</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Korrektur</t>
-  </si>
-  <si>
-    <t>Kolonne4</t>
   </si>
   <si>
     <t>05/09</t>
@@ -730,7 +727,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -744,9 +741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,7 +913,7 @@
     <tableColumn id="1" xr3:uid="{6AC53489-4E42-4561-9105-E53799751BB4}" name="Overemne" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{D34C0944-0ED0-429F-83E6-80101BCA76D3}" name="Opgave" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{585B84BF-C432-4AF3-8999-72B769F20485}" name="estimeret tid" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{92DF52A4-5F7B-48B8-B71B-97706983AA9B}" name="Kolonne4" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{92DF52A4-5F7B-48B8-B71B-97706983AA9B}" name="realtid" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{D4B09E2B-1126-42EA-903C-F0EBB92C0FD6}" name="05/09"/>
     <tableColumn id="6" xr3:uid="{B63405E1-19D4-441E-939B-7B28F3289687}" name="06/09"/>
     <tableColumn id="7" xr3:uid="{C3227B75-CE77-494C-95DC-6AFB385C9C4D}" name="07/09"/>
@@ -1292,20 +1286,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="72" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="72" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -1313,46 +1307,46 @@
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1" s="8"/>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
       <c r="W1" s="7"/>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="25" t="s">
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
       <c r="AL1"/>
       <c r="AM1"/>
       <c r="AN1"/>
@@ -1362,335 +1356,335 @@
       <c r="AR1"/>
       <c r="AS1"/>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" t="s">
         <v>114</v>
       </c>
-      <c r="U2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>116</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>119</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>120</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>121</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>122</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>123</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
         <v>124</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BQ2" t="s">
         <v>125</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BK3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BL3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BM3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BR3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BR3" s="12" t="s">
+      <c r="BS3" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="BS3" s="12" t="s">
+      <c r="BT3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="BT3" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+    </row>
+    <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="J5" s="2"/>
       <c r="BT5" s="5"/>
     </row>
-    <row r="6" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="10"/>
       <c r="BT6" s="5"/>
     </row>
-    <row r="7" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="18"/>
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="10"/>
       <c r="BT7" s="5"/>
     </row>
-    <row r="8" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1698,41 +1692,53 @@
       <c r="S8" s="1"/>
       <c r="BT8" s="5"/>
     </row>
-    <row r="9" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="10"/>
       <c r="BT9" s="5"/>
     </row>
-    <row r="10" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="8"/>
       <c r="BT10" s="5"/>
     </row>
-    <row r="11" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1741,114 +1747,156 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="11"/>
+      <c r="W11" s="10"/>
       <c r="BT11" s="5"/>
     </row>
-    <row r="12" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>2040</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="O12" s="11"/>
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="BT12" s="5"/>
     </row>
-    <row r="13" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="O13" s="11"/>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="BT13" s="5"/>
     </row>
-    <row r="14" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="11"/>
+      <c r="W14" s="10"/>
       <c r="BT14" s="5"/>
     </row>
-    <row r="15" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="8"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="10"/>
       <c r="BT15" s="5"/>
     </row>
-    <row r="16" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="10"/>
       <c r="BT16" s="5"/>
     </row>
-    <row r="17" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="O17" s="11"/>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="BT17" s="5"/>
     </row>
-    <row r="18" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="AA18" s="6"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
       <c r="BT18" s="5"/>
     </row>
-    <row r="19" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="14">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="AE19" s="8"/>
       <c r="AF19" s="8"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
       <c r="BT19" s="5"/>
     </row>
-    <row r="20" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="18"/>
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="AG20" s="8"/>
+      <c r="C20" s="14">
+        <v>6</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="10"/>
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
@@ -1856,66 +1904,91 @@
       <c r="AL20" s="8"/>
       <c r="BT20" s="5"/>
     </row>
-    <row r="21" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="O21" s="11"/>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="10"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="8"/>
       <c r="BT21" s="5"/>
     </row>
-    <row r="22" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="14">
+        <v>4</v>
+      </c>
+      <c r="D22" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="10"/>
       <c r="AO22" s="8"/>
       <c r="AP22" s="8"/>
       <c r="AQ22" s="8"/>
       <c r="AR22" s="8"/>
       <c r="BT22" s="5"/>
     </row>
-    <row r="23" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="18"/>
+      <c r="B23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="14">
+        <v>4</v>
+      </c>
+      <c r="D23" s="14"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
       <c r="AY23" s="8"/>
       <c r="AZ23" s="8"/>
       <c r="BT23" s="5"/>
     </row>
-    <row r="24" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
       <c r="BT24" s="5"/>
     </row>
-    <row r="25" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="14">
+        <v>9</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="AL25" s="6"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
@@ -1927,56 +2000,63 @@
       <c r="BK25" s="8"/>
       <c r="BT25" s="5"/>
     </row>
-    <row r="26" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20"/>
       <c r="BT26" s="5"/>
     </row>
-    <row r="27" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="BT27" s="5"/>
     </row>
-    <row r="28" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="15" t="s">
+    <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="BT28" s="5"/>
     </row>
-    <row r="29" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="18"/>
+      <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="14">
+        <v>3</v>
+      </c>
+      <c r="D29" s="14"/>
       <c r="H29" s="6"/>
       <c r="L29" s="8"/>
       <c r="P29" s="8"/>
       <c r="BT29" s="5"/>
     </row>
-    <row r="30" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="21"/>
+      <c r="B30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="14">
+        <v>8</v>
+      </c>
+      <c r="D30" s="14"/>
       <c r="AO30" s="8"/>
       <c r="AP30" s="8"/>
       <c r="AQ30" s="8"/>
@@ -1987,49 +2067,59 @@
       <c r="AV30" s="8"/>
       <c r="BT30" s="5"/>
     </row>
-    <row r="31" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="14">
+        <v>1</v>
+      </c>
+      <c r="D31" s="14"/>
       <c r="BL31" s="8"/>
     </row>
-    <row r="32" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="18"/>
+      <c r="B32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14"/>
       <c r="BM32" s="8"/>
     </row>
-    <row r="33" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="BN33" s="8"/>
     </row>
-    <row r="34" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="15" t="s">
+    <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="21"/>
+      <c r="B34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14"/>
       <c r="BO34" s="8"/>
     </row>
-    <row r="35" spans="1:72" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="14">
+        <v>5</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="BP35" s="8"/>
       <c r="BQ35" s="8"/>
       <c r="BR35" s="8"/>
@@ -2045,12 +2135,11 @@
     <mergeCell ref="AE1:AK1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 N9:O9 S11:V11" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt" sqref="E26" xr:uid="{7C674B49-F80A-4389-934D-E721FC5BBA62}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 E6 F7:F8 H29 M9:M10 S1 O21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AG20:AL20 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25 O9 AF15 F7:F8" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AS25:AV25 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AH20:AL20" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C84AE6-5D62-4481-99D1-28B1E31B53CC}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAC6C5A-6A86-453B-86F4-3BCB6655E0F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>dip SW</t>
   </si>
   <si>
-    <t>Forside</t>
-  </si>
-  <si>
     <t>Problemformulering</t>
   </si>
   <si>
@@ -462,6 +459,9 @@
   </si>
   <si>
     <t>Uge40</t>
+  </si>
+  <si>
+    <t>Programering</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1308,7 @@
       <c r="F1"/>
       <c r="G1" s="8"/>
       <c r="H1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
@@ -1316,7 +1316,7 @@
       <c r="L1" s="23"/>
       <c r="M1" s="6"/>
       <c r="N1" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
@@ -1324,13 +1324,13 @@
       <c r="R1" s="23"/>
       <c r="S1" s="10"/>
       <c r="T1" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
       <c r="W1" s="7"/>
       <c r="X1" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
@@ -1339,7 +1339,7 @@
       <c r="AC1" s="24"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF1" s="24"/>
       <c r="AG1" s="24"/>
@@ -1358,55 +1358,55 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" t="s">
         <v>112</v>
       </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" t="s">
         <v>113</v>
       </c>
-      <c r="U2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>114</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>116</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>117</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>118</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>119</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>120</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>121</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>122</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
         <v>123</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BQ2" t="s">
         <v>124</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1423,208 +1423,208 @@
         <v>2</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AG3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="11" t="s">
+      <c r="AL3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AO3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AT3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AW3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BB3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BC3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BD3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BE3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="BI3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="BI3" s="11" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="BJ3" s="11" t="s">
+      <c r="BK3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="BK3" s="11" t="s">
+      <c r="BL3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BL3" s="11" t="s">
+      <c r="BM3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="BN3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BQ3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="BQ3" s="11" t="s">
+      <c r="BR3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BS3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BT3" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="BT3" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1867,6 +1867,7 @@
       <c r="AD18" s="8"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
+      <c r="AN18" s="7"/>
       <c r="BT18" s="5"/>
     </row>
     <row r="19" spans="1:72" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -1883,6 +1884,8 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AO19" s="7"/>
       <c r="BT19" s="5"/>
     </row>
     <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1927,7 +1930,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="14">
         <v>4</v>
@@ -1948,7 +1951,7 @@
     <row r="23" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="18"/>
       <c r="B23" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="14">
         <v>4</v>
@@ -1974,17 +1977,17 @@
       <c r="BT24" s="5"/>
     </row>
     <row r="25" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="21"/>
       <c r="B25" s="14" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C25" s="14">
         <v>9</v>
       </c>
       <c r="D25" s="14"/>
       <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AO25" s="6"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
       <c r="AU25" s="8"/>
@@ -2001,9 +2004,11 @@
       <c r="BT25" s="5"/>
     </row>
     <row r="26" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
+      <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
@@ -2014,7 +2019,7 @@
     <row r="27" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
       <c r="B27" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14">
         <v>1</v>
@@ -2028,7 +2033,7 @@
     <row r="28" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
       <c r="B28" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2051,7 +2056,7 @@
     <row r="30" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="21"/>
       <c r="B30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="14">
         <v>8</v>
@@ -2070,7 +2075,7 @@
     <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
       <c r="B31" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="14">
         <v>1</v>
@@ -2081,7 +2086,7 @@
     <row r="32" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="18"/>
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="14">
         <v>1</v>
@@ -2092,7 +2097,7 @@
     <row r="33" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="18"/>
       <c r="B33" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="14">
         <v>1</v>
@@ -2103,7 +2108,7 @@
     <row r="34" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="21"/>
       <c r="B34" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="14">
         <v>1</v>
@@ -2114,7 +2119,7 @@
     <row r="35" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="22"/>
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="14">
         <v>5</v>
@@ -2137,8 +2142,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25 O9 AF15 F7:F8" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AS25:AV25 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AH20:AL20" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAC6C5A-6A86-453B-86F4-3BCB6655E0F9}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F33CE3-8986-46A2-B660-493B3144739F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AO25" sqref="AO25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AP32" sqref="AP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1886,6 +1886,7 @@
       <c r="AJ19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
       <c r="BT19" s="5"/>
     </row>
     <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1988,6 +1989,7 @@
       <c r="AL25" s="6"/>
       <c r="AM25" s="6"/>
       <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
       <c r="AS25" s="8"/>
       <c r="AT25" s="8"/>
       <c r="AU25" s="8"/>
@@ -2142,8 +2144,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19:AP19" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25:AP25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AS25:AV25 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AH20:AL20" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F33CE3-8986-46A2-B660-493B3144739F}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC56282-F0D5-4B87-8E0D-2D857C8E55C5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AP32" sqref="AP32"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1887,6 +1887,10 @@
       <c r="AM19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AZ19" s="7"/>
       <c r="BT19" s="5"/>
     </row>
     <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1906,6 +1910,8 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
       <c r="BT20" s="5"/>
     </row>
     <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1990,10 +1996,16 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="6"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
@@ -2069,9 +2081,15 @@
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
-      <c r="AT30" s="8"/>
+      <c r="AT30" s="7"/>
       <c r="AU30" s="8"/>
       <c r="AV30" s="8"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
       <c r="BT30" s="5"/>
     </row>
     <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -2144,9 +2162,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19:AP19" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25:AP25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AS25:AV25 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AH20:AL20" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19:AS19 AU20:AV20 AT30 AW30:AY30 AZ19 BA30:BC30" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25:AZ25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AU30:AV30 AH20:AL20 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AO30:AS30" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Tidsplan.xlsx
+++ b/Tidsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16589563a1778640/Dokumenter/GitHub/Modbus-wireless/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC56282-F0D5-4B87-8E0D-2D857C8E55C5}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{0D5AE994-A898-4203-8DDD-F3ACAC06B7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F33CE3-8986-46A2-B660-493B3144739F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DAF31404-1682-464B-A973-190E4CAB33C0}"/>
   </bookViews>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E356E727-5468-4FB6-81C8-32361E5118C1}">
   <dimension ref="A1:BT35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AP32" sqref="AP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1887,10 +1887,6 @@
       <c r="AM19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AZ19" s="7"/>
       <c r="BT19" s="5"/>
     </row>
     <row r="20" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1910,8 +1906,6 @@
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
-      <c r="AU20" s="7"/>
-      <c r="AV20" s="7"/>
       <c r="BT20" s="5"/>
     </row>
     <row r="21" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -1996,16 +1990,10 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
-      <c r="AQ25" s="6"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="6"/>
-      <c r="AT25" s="6"/>
-      <c r="AU25" s="6"/>
-      <c r="AV25" s="6"/>
-      <c r="AW25" s="6"/>
-      <c r="AX25" s="6"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="6"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
       <c r="BC25" s="8"/>
       <c r="BD25" s="8"/>
       <c r="BE25" s="8"/>
@@ -2081,15 +2069,9 @@
       <c r="AQ30" s="8"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
-      <c r="AT30" s="7"/>
+      <c r="AT30" s="8"/>
       <c r="AU30" s="8"/>
       <c r="AV30" s="8"/>
-      <c r="AW30" s="7"/>
-      <c r="AX30" s="7"/>
-      <c r="AY30" s="7"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
       <c r="BT30" s="5"/>
     </row>
     <row r="31" spans="1:72" ht="18.5" x14ac:dyDescent="0.45">
@@ -2162,9 +2144,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver fuldført procentdel af projekt ud over plan" sqref="AD1" xr:uid="{BF060330-2D57-4C2E-A2FD-080220327651}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19:AS19 AU20:AV20 AT30 AW30:AY30 AZ19 BA30:BC30" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25:AZ25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AU30:AV30 AH20:AL20 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AO30:AS30" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed ud over plan" sqref="W1 H27:I27 K8 AH22:AI22 S11:V11 N9 AB15:AE15 AI19:AJ19 AK18:AL18 AN18 AM19 AO19:AP19" xr:uid="{57EE377A-B326-4BA0-9B20-0B4A5BE5DE04}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver faktisk varighed" sqref="M1 G27 AG20 E6 H29 M9:M10 S1 AK21:AL21 N10 R11 O17 O12:O13 W11 W14:W15 AA16 AA18 AH19 O21 AG22 AJ22 AL25:AM25 O9 AF15 F7:F8 AO25:AP25" xr:uid="{6FE6570C-38E1-45A6-B13F-764044E91F90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Denne forklaringscelle angiver varighed for plan" sqref="G1 P29 I9:L9 G8 L29 I8:J8 O10:O11 M11:N11 BP35:BT35 U14:V14 S13:T13 P12:R12 Y16:Z16 AA17:AB17 AC18:AD18 AE19:AF19 AM21:AN21 AS25:AV25 AO30:AV30 AO22:AR22 AW23:AZ23 BA24:BB24 BC25:BK25 BL31 BN33 BM32 BO34 X15 AH20:AL20" xr:uid="{4C0F5E36-941B-4AB6-9E4B-0EF4948DA4C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
